--- a/Project3/improved_data_9.xlsx
+++ b/Project3/improved_data_9.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{736BBEE0-409B-704E-B682-09954F7CE34D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA193C9-9E05-544D-BE52-231A8B0193A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1560" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="15720" yWindow="1560" windowWidth="12700" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="improved_data_9" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>STD</t>
   </si>
@@ -43,11 +43,20 @@
   <si>
     <t>Avg</t>
   </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000E+00"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -525,9 +534,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -882,171 +892,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>3.2799543499999999E-5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
+        <f>B2^2</f>
+        <v>1.0758100538083921E-9</v>
+      </c>
+      <c r="D2">
         <v>0.19277947925193101</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>110.10847029999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>3.2696468110000002E-5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C11" si="0">B3^2</f>
+        <v>1.0690590268682471E-9</v>
+      </c>
+      <c r="D3">
         <v>0.19270140829865301</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>109.78021080000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>3.2886263959999999E-5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0815063572467949E-9</v>
+      </c>
+      <c r="D4">
         <v>0.19279987737969501</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>109.1595815</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3.2945200880000002E-5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0853862610235529E-9</v>
+      </c>
+      <c r="D5">
         <v>0.19280651027701901</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>112.2270271</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>3.2735639099999997E-5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0716220672854486E-9</v>
+      </c>
+      <c r="D6">
         <v>0.19278446051728901</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>109.28215280000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>3.3013439350000002E-5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0898871777161286E-9</v>
+      </c>
+      <c r="D7">
         <v>0.192768441935354</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>110.8131831</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>3.3223501490000002E-5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1038010512560324E-9</v>
+      </c>
+      <c r="D8">
         <v>0.192808557650261</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>109.9197393</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>3.2690111650000003E-5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0686433996894658E-9</v>
+      </c>
+      <c r="D9">
         <v>0.19279444890563999</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>111.3644309</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>3.2798626689999997E-5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0757499127499801E-9</v>
+      </c>
+      <c r="D10">
         <v>0.19277029737766599</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>109.47286680000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>3.2890507989999998E-5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0817855158402538E-9</v>
+      </c>
+      <c r="D11">
         <v>0.19277526208472201</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>109.41851990000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>3.2867930271999999E-5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
+        <v>1.0803250823484298E-9</v>
+      </c>
+      <c r="D13" s="2">
+        <f>AVERAGE(D2:D11)</f>
         <v>0.19277887436782298</v>
       </c>
-      <c r="D13" s="1">
-        <f>AVERAGE(D2:D11)</f>
+      <c r="E13" s="2">
+        <f>AVERAGE(E2:E11)</f>
         <v>110.15461825</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
-        <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>1.6412049562450952E-7</v>
-      </c>
-      <c r="C14">
-        <f>_xlfn.STDEV.S(C2:C11)</f>
-        <v>3.083386538128043E-5</v>
-      </c>
       <c r="D14">
         <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>3.083386538128043E-5</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.STDEV.S(E2:E11)</f>
         <v>1.0081683810045348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f>SQRT(C13)</f>
+        <v>3.2868299048603498E-5</v>
       </c>
     </row>
   </sheetData>
